--- a/src/main/resources/datadictionary/bral.2.3.0.dd.xlsx
+++ b/src/main/resources/datadictionary/bral.2.3.0.dd.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gitanshgumpu/GitHub/SpringProject/src/main/resources/datadictionary/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C6F63-3B30-7745-B294-23AC199B12B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1357,7 +1363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1375,12 +1381,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1395,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1404,6 +1416,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,6 +1429,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1461,7 +1480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1494,9 +1513,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1529,6 +1565,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1704,37 +1757,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="102.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="102.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +1833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +1856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1847,23 +1888,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1873,23 +1914,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H6">
@@ -1905,23 +1946,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7">
@@ -1937,20 +1978,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H8">
@@ -1966,20 +2008,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1989,7 +2032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2000,7 +2043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2011,7 +2054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -2040,7 +2083,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2063,7 +2106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -2092,7 +2135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -2103,7 +2146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2114,7 +2157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -2125,7 +2168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2136,7 +2179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -2147,7 +2190,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -2158,7 +2201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2169,7 +2212,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -2180,7 +2223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -2191,7 +2234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2228,7 +2271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2239,7 +2282,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>114</v>
       </c>
@@ -2250,7 +2293,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
@@ -2261,7 +2304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -2272,7 +2315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -2283,7 +2326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -2294,7 +2337,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -2305,7 +2348,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
@@ -2316,7 +2359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2327,7 +2370,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2338,7 +2381,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -2349,7 +2392,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
@@ -2360,7 +2403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -2371,7 +2414,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -2382,7 +2425,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -2393,7 +2436,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>156</v>
       </c>
@@ -2404,7 +2447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -2415,7 +2458,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -2426,7 +2469,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -2437,7 +2480,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
@@ -2448,7 +2491,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>170</v>
       </c>
@@ -2459,7 +2502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>173</v>
       </c>
@@ -2470,7 +2513,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>176</v>
       </c>
@@ -2481,7 +2524,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>179</v>
       </c>
@@ -2492,7 +2535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>182</v>
       </c>
@@ -2503,7 +2546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>185</v>
       </c>
@@ -2514,7 +2557,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>188</v>
       </c>
@@ -2525,7 +2568,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>191</v>
       </c>
@@ -2551,7 +2594,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>196</v>
       </c>
@@ -2562,7 +2605,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
@@ -2573,7 +2616,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>202</v>
       </c>
@@ -2584,7 +2627,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>205</v>
       </c>
@@ -2595,7 +2638,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>208</v>
       </c>
@@ -2606,7 +2649,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>211</v>
       </c>
@@ -2617,7 +2660,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>214</v>
       </c>
@@ -2628,7 +2671,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>217</v>
       </c>
@@ -2639,7 +2682,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>220</v>
       </c>
@@ -2650,7 +2693,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>222</v>
       </c>
@@ -2661,7 +2704,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>225</v>
       </c>
@@ -2690,7 +2733,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>229</v>
       </c>
@@ -2713,7 +2756,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
@@ -2745,7 +2788,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>240</v>
       </c>
@@ -2774,7 +2817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>243</v>
       </c>
@@ -2803,7 +2846,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>248</v>
       </c>
@@ -2826,7 +2869,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>252</v>
       </c>
@@ -2858,7 +2901,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>253</v>
       </c>
@@ -2887,7 +2930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>254</v>
       </c>
@@ -2916,7 +2959,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>255</v>
       </c>
@@ -2939,7 +2982,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>259</v>
       </c>
@@ -2971,7 +3014,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>260</v>
       </c>
@@ -3000,7 +3043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>261</v>
       </c>
@@ -3029,7 +3072,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>262</v>
       </c>
@@ -3052,7 +3095,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>267</v>
       </c>
@@ -3075,7 +3118,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>272</v>
       </c>
@@ -3098,7 +3141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>277</v>
       </c>
@@ -3124,7 +3167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>280</v>
       </c>
@@ -3132,7 +3175,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>282</v>
       </c>
@@ -3140,7 +3183,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>284</v>
       </c>
@@ -3148,7 +3191,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>286</v>
       </c>
@@ -3156,7 +3199,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>288</v>
       </c>
@@ -3164,7 +3207,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>290</v>
       </c>
@@ -3172,7 +3215,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>292</v>
       </c>
@@ -3180,7 +3223,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>294</v>
       </c>
@@ -3209,7 +3252,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>298</v>
       </c>
@@ -3232,7 +3275,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="256" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>303</v>
       </c>
@@ -3258,7 +3301,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="256" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>309</v>
       </c>
@@ -3284,7 +3327,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>312</v>
       </c>
@@ -3307,7 +3350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>317</v>
       </c>
@@ -3336,7 +3379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>319</v>
       </c>
@@ -3359,7 +3402,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>324</v>
       </c>
@@ -3382,7 +3425,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>327</v>
       </c>
@@ -3408,7 +3451,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>329</v>
       </c>
@@ -3431,7 +3474,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>330</v>
       </c>
@@ -3457,7 +3500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>331</v>
       </c>
@@ -3465,7 +3508,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>332</v>
       </c>
@@ -3473,7 +3516,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>333</v>
       </c>
@@ -3481,7 +3524,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>334</v>
       </c>
@@ -3489,7 +3532,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>335</v>
       </c>
@@ -3497,7 +3540,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>336</v>
       </c>
@@ -3505,7 +3548,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>337</v>
       </c>
@@ -3513,7 +3556,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>338</v>
       </c>
@@ -3542,7 +3585,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>339</v>
       </c>
@@ -3565,7 +3608,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="256" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>340</v>
       </c>
@@ -3591,7 +3634,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="256" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>341</v>
       </c>
@@ -3617,7 +3660,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>342</v>
       </c>
@@ -3640,7 +3683,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
@@ -3663,7 +3706,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>351</v>
       </c>
@@ -3674,7 +3717,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>354</v>
       </c>
@@ -3685,7 +3728,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>357</v>
       </c>
@@ -3696,7 +3739,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>360</v>
       </c>
@@ -3707,7 +3750,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>362</v>
       </c>
@@ -3718,7 +3761,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>365</v>
       </c>
@@ -3729,7 +3772,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>367</v>
       </c>
@@ -3740,7 +3783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>370</v>
       </c>
@@ -3769,7 +3812,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>374</v>
       </c>
@@ -3798,7 +3841,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>378</v>
       </c>
@@ -3821,7 +3864,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>382</v>
       </c>
@@ -3853,7 +3896,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>384</v>
       </c>
@@ -3882,7 +3925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>385</v>
       </c>
@@ -3911,7 +3954,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>386</v>
       </c>
@@ -3937,7 +3980,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>392</v>
       </c>
@@ -3966,7 +4009,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>396</v>
       </c>
@@ -3995,7 +4038,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>400</v>
       </c>
@@ -4024,7 +4067,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>404</v>
       </c>
@@ -4053,7 +4096,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>408</v>
       </c>
@@ -4082,7 +4125,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>412</v>
       </c>
@@ -4108,7 +4151,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>418</v>
       </c>
@@ -4137,7 +4180,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>423</v>
       </c>
@@ -4160,7 +4203,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>428</v>
       </c>
@@ -4183,7 +4226,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>433</v>
       </c>
@@ -4209,7 +4252,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>439</v>
       </c>
@@ -4241,24 +4284,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/datadictionary/bral.2.3.0.dd.xlsx
+++ b/src/main/resources/datadictionary/bral.2.3.0.dd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gitanshgumpu/GitHub/SpringProject/src/main/resources/datadictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C6F63-3B30-7745-B294-23AC199B12B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A0048E-F3F2-5247-9F9C-6436399503C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,12 +1390,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1403,11 +1415,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1416,10 +1443,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,15 +1799,25 @@
   <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="102.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="102.33203125" style="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="102.33203125" style="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1856,39 +1901,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <v>140</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1907,14 +1954,16 @@
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1933,20 +1982,22 @@
       <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
         <v>35</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1965,27 +2016,28 @@
       <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
         <v>35</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5"/>
       <c r="D8" s="5">
         <v>0</v>
       </c>
@@ -1995,27 +2047,28 @@
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <v>140</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
@@ -2025,214 +2078,244 @@
       <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="F10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="F11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
         <v>8</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="144" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>4</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="F15" s="8"/>
+      <c r="K15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="F16" s="8"/>
+      <c r="K16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="F17" s="8"/>
+      <c r="K17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="F18" s="8"/>
+      <c r="K18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="F19" s="8"/>
+      <c r="K19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="F20" s="8"/>
+      <c r="K20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="F21" s="8"/>
+      <c r="K21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="F22" s="8"/>
+      <c r="K22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="F23" s="8"/>
+      <c r="K23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -2260,7 +2343,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2271,7 +2354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2282,7 +2365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>114</v>
       </c>
@@ -2293,7 +2376,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
@@ -2304,7 +2387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -2315,7 +2398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -2326,7 +2409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -2337,7 +2420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -2348,7 +2431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
@@ -2359,7 +2442,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2370,7 +2453,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2381,7 +2464,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -2392,7 +2475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
@@ -2403,7 +2486,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -2414,7 +2497,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -2425,7 +2508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -2436,7 +2519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>156</v>
       </c>
@@ -2447,7 +2530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -2458,7 +2541,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -2469,7 +2552,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -2480,7 +2563,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>167</v>
       </c>
@@ -2491,7 +2574,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>170</v>
       </c>
@@ -2502,7 +2585,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>173</v>
       </c>
@@ -2513,7 +2596,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>176</v>
       </c>
@@ -2524,7 +2607,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>179</v>
       </c>
@@ -2535,7 +2618,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>182</v>
       </c>
@@ -2546,7 +2629,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>185</v>
       </c>
@@ -2557,7 +2640,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>188</v>
       </c>
@@ -2568,7 +2651,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>191</v>
       </c>
@@ -2594,7 +2677,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>196</v>
       </c>
@@ -2605,7 +2688,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
@@ -2616,7 +2699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>202</v>
       </c>
@@ -2627,7 +2710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="160" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>205</v>
       </c>
@@ -2638,7 +2721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>208</v>
       </c>
@@ -2649,7 +2732,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>211</v>
       </c>
@@ -2660,7 +2743,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>214</v>
       </c>
@@ -2671,7 +2754,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>217</v>
       </c>
@@ -2682,7 +2765,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>220</v>
       </c>
@@ -2693,7 +2776,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>222</v>
       </c>
@@ -2704,7 +2787,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>225</v>
       </c>
@@ -2733,7 +2816,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>229</v>
       </c>
@@ -2756,7 +2839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
@@ -2788,7 +2871,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>240</v>
       </c>
@@ -2846,7 +2929,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>248</v>
       </c>
@@ -2869,7 +2952,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>252</v>
       </c>
@@ -2901,7 +2984,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>253</v>
       </c>
@@ -2930,7 +3013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>254</v>
       </c>
@@ -2959,7 +3042,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>255</v>
       </c>
@@ -2982,7 +3065,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>259</v>
       </c>
@@ -3014,7 +3097,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>260</v>
       </c>
@@ -3072,7 +3155,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>262</v>
       </c>
@@ -3095,7 +3178,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>267</v>
       </c>
@@ -3275,7 +3358,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>303</v>
       </c>
@@ -3301,7 +3384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>309</v>
       </c>
@@ -3379,7 +3462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>319</v>
       </c>
@@ -3402,7 +3485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>324</v>
       </c>
@@ -3425,7 +3508,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>327</v>
       </c>
@@ -3508,7 +3591,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>332</v>
       </c>
@@ -3548,7 +3631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>337</v>
       </c>
@@ -3608,7 +3691,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>340</v>
       </c>
@@ -3634,7 +3717,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>341</v>
       </c>
@@ -3683,7 +3766,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
@@ -3783,7 +3866,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>370</v>
       </c>
@@ -3812,7 +3895,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>374</v>
       </c>
@@ -3841,7 +3924,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>378</v>
       </c>
@@ -3954,7 +4037,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>386</v>
       </c>
@@ -3980,7 +4063,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>392</v>
       </c>
@@ -4009,7 +4092,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>396</v>
       </c>
@@ -4038,7 +4121,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>400</v>
       </c>
@@ -4067,7 +4150,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>404</v>
       </c>
@@ -4125,7 +4208,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>412</v>
       </c>
@@ -4151,7 +4234,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>418</v>
       </c>
@@ -4252,7 +4335,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>439</v>
       </c>
